--- a/data/program_list.xlsx
+++ b/data/program_list.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidne\OneDrive\Documents\SENG 300\Group Assignment 3\seng300Group3\data_gathering\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cynthia\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="19200" windowHeight="6948"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="211">
   <si>
     <t>Link</t>
   </si>
@@ -456,13 +456,214 @@
   </si>
   <si>
     <t>https://github.com/Microsoft/Visual-Audience-Polling.git</t>
+  </si>
+  <si>
+    <t>EventBus</t>
+  </si>
+  <si>
+    <t>https://github.com/greenrobot/EventBus</t>
+  </si>
+  <si>
+    <t>Cynthia</t>
+  </si>
+  <si>
+    <t>https://github.com/TooTallNate/Java-WebSocket</t>
+  </si>
+  <si>
+    <t>Java-WebSocket</t>
+  </si>
+  <si>
+    <t>https://github.com/MovingBlocks/Terasology</t>
+  </si>
+  <si>
+    <t>Terasology</t>
+  </si>
+  <si>
+    <t>https://github.com/deano2390/OpenFlappyBird</t>
+  </si>
+  <si>
+    <t>OpenFlappyBird</t>
+  </si>
+  <si>
+    <t>https://github.com/runelite/runelite</t>
+  </si>
+  <si>
+    <t>runelite</t>
+  </si>
+  <si>
+    <t>SkyTube</t>
+  </si>
+  <si>
+    <t>https://github.com/ram-on/SkyTube</t>
+  </si>
+  <si>
+    <t>LeafPic</t>
+  </si>
+  <si>
+    <t>https://github.com/HoraApps/LeafPic</t>
+  </si>
+  <si>
+    <t>opsu</t>
+  </si>
+  <si>
+    <t>https://github.com/itdelatrisu/opsu</t>
+  </si>
+  <si>
+    <t>OpenCCSensors</t>
+  </si>
+  <si>
+    <t>https://github.com/Cloudhunter/OpenCCSensors</t>
+  </si>
+  <si>
+    <t>martianrun</t>
+  </si>
+  <si>
+    <t>https://github.com/wmora/martianrun</t>
+  </si>
+  <si>
+    <t>opensudoku</t>
+  </si>
+  <si>
+    <t>https://github.com/ogarcia/opensudoku</t>
+  </si>
+  <si>
+    <t>WordCram</t>
+  </si>
+  <si>
+    <t>https://github.com/danbernier/WordCram</t>
+  </si>
+  <si>
+    <t>FancyCoverFlow</t>
+  </si>
+  <si>
+    <t>https://github.com/davidschreiber/FancyCoverFlow</t>
+  </si>
+  <si>
+    <t>TurtlePlayer</t>
+  </si>
+  <si>
+    <t>https://github.com/eddturtle/TurtlePlayer</t>
+  </si>
+  <si>
+    <t>good-weather</t>
+  </si>
+  <si>
+    <t>https://github.com/qqq3/good-weather</t>
+  </si>
+  <si>
+    <t>choco-solver</t>
+  </si>
+  <si>
+    <t>https://github.com/chocoteam/choco-solver</t>
+  </si>
+  <si>
+    <t>https://github.com/ccrama/Slide</t>
+  </si>
+  <si>
+    <t>Slide</t>
+  </si>
+  <si>
+    <t>https://github.com/graphhopper/graphhopper</t>
+  </si>
+  <si>
+    <t>graphhopper</t>
+  </si>
+  <si>
+    <t>search-guard</t>
+  </si>
+  <si>
+    <t>https://github.com/floragunncom/search-guard</t>
+  </si>
+  <si>
+    <t>EventHub</t>
+  </si>
+  <si>
+    <t>https://github.com/Codecademy/EventHub</t>
+  </si>
+  <si>
+    <t>spark</t>
+  </si>
+  <si>
+    <t>https://github.com/perwendel/spark</t>
+  </si>
+  <si>
+    <t>https://github.com/jhy/jsoup</t>
+  </si>
+  <si>
+    <t>jsoup</t>
+  </si>
+  <si>
+    <t>moshi</t>
+  </si>
+  <si>
+    <t>https://github.com/square/moshi</t>
+  </si>
+  <si>
+    <t>checkstyle</t>
+  </si>
+  <si>
+    <t>https://github.com/checkstyle/checkstyle</t>
+  </si>
+  <si>
+    <t>Alterter</t>
+  </si>
+  <si>
+    <t>https://github.com/Tapadoo/Alerter</t>
+  </si>
+  <si>
+    <t>Euclid</t>
+  </si>
+  <si>
+    <t>https://github.com/Yalantis/Euclid</t>
+  </si>
+  <si>
+    <t>StyleableToast</t>
+  </si>
+  <si>
+    <t>https://github.com/Muddz/StyleableToast</t>
+  </si>
+  <si>
+    <t>AirMapView</t>
+  </si>
+  <si>
+    <t>https://github.com/airbnb/AirMapView</t>
+  </si>
+  <si>
+    <t>Omni-Notes</t>
+  </si>
+  <si>
+    <t>https://github.com/federicoiosue/Omni-Notes</t>
+  </si>
+  <si>
+    <t>Spotlight</t>
+  </si>
+  <si>
+    <t>https://github.com/TakuSemba/Spotlight</t>
+  </si>
+  <si>
+    <t>bitcoin-wallet</t>
+  </si>
+  <si>
+    <t>https://github.com/bitcoin-wallet/bitcoin-wallet</t>
+  </si>
+  <si>
+    <t>android-PageFlip</t>
+  </si>
+  <si>
+    <t>https://github.com/eschao/android-PageFlip</t>
+  </si>
+  <si>
+    <t>https://github.com/thymeleaf/thymeleaf</t>
+  </si>
+  <si>
+    <t>thymeleaf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -481,6 +682,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF24292E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -509,10 +718,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -521,8 +731,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -835,21 +1050,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C70"/>
+  <dimension ref="A1:C103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A90" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A103" sqref="A103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.5546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="82.5546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="67.5546875" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="40.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="82.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="67.5703125" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -860,7 +1075,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -871,7 +1086,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -882,7 +1097,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -893,7 +1108,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -904,18 +1119,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
@@ -926,7 +1141,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
@@ -937,7 +1152,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
@@ -948,7 +1163,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
@@ -959,18 +1174,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>25</v>
       </c>
@@ -981,7 +1196,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>27</v>
       </c>
@@ -992,7 +1207,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>30</v>
       </c>
@@ -1003,7 +1218,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>31</v>
       </c>
@@ -1014,7 +1229,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>33</v>
       </c>
@@ -1025,7 +1240,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>36</v>
       </c>
@@ -1036,7 +1251,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>38</v>
       </c>
@@ -1047,7 +1262,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>39</v>
       </c>
@@ -1058,29 +1273,29 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="6" t="s">
         <v>42</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="6" t="s">
         <v>44</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>45</v>
       </c>
@@ -1091,7 +1306,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>47</v>
       </c>
@@ -1102,7 +1317,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>49</v>
       </c>
@@ -1113,7 +1328,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>51</v>
       </c>
@@ -1124,7 +1339,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>53</v>
       </c>
@@ -1135,7 +1350,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>55</v>
       </c>
@@ -1146,7 +1361,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>57</v>
       </c>
@@ -1157,7 +1372,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>60</v>
       </c>
@@ -1168,7 +1383,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>61</v>
       </c>
@@ -1179,7 +1394,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>64</v>
       </c>
@@ -1190,7 +1405,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>65</v>
       </c>
@@ -1201,7 +1416,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>67</v>
       </c>
@@ -1212,7 +1427,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>69</v>
       </c>
@@ -1223,7 +1438,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>71</v>
       </c>
@@ -1234,7 +1449,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>73</v>
       </c>
@@ -1245,7 +1460,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>77</v>
       </c>
@@ -1256,7 +1471,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>78</v>
       </c>
@@ -1267,7 +1482,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>80</v>
       </c>
@@ -1278,7 +1493,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>82</v>
       </c>
@@ -1289,7 +1504,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>84</v>
       </c>
@@ -1300,7 +1515,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>87</v>
       </c>
@@ -1311,7 +1526,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>88</v>
       </c>
@@ -1322,7 +1537,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>90</v>
       </c>
@@ -1333,7 +1548,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>92</v>
       </c>
@@ -1344,29 +1559,29 @@
         <v>76</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="7" t="s">
         <v>95</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="7" t="s">
         <v>97</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>98</v>
       </c>
@@ -1377,7 +1592,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>100</v>
       </c>
@@ -1388,7 +1603,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>102</v>
       </c>
@@ -1399,18 +1614,18 @@
         <v>76</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="7" t="s">
         <v>105</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>106</v>
       </c>
@@ -1421,7 +1636,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>108</v>
       </c>
@@ -1432,7 +1647,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>110</v>
       </c>
@@ -1443,7 +1658,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>112</v>
       </c>
@@ -1454,7 +1669,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>114</v>
       </c>
@@ -1465,7 +1680,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>116</v>
       </c>
@@ -1476,7 +1691,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>118</v>
       </c>
@@ -1487,7 +1702,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>120</v>
       </c>
@@ -1498,7 +1713,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>122</v>
       </c>
@@ -1509,7 +1724,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>124</v>
       </c>
@@ -1520,7 +1735,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>126</v>
       </c>
@@ -1531,7 +1746,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>128</v>
       </c>
@@ -1542,7 +1757,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>130</v>
       </c>
@@ -1553,7 +1768,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>132</v>
       </c>
@@ -1564,7 +1779,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>134</v>
       </c>
@@ -1575,7 +1790,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>136</v>
       </c>
@@ -1586,7 +1801,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>138</v>
       </c>
@@ -1597,7 +1812,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>140</v>
       </c>
@@ -1608,7 +1823,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>142</v>
       </c>
@@ -1619,8 +1834,381 @@
         <v>76</v>
       </c>
     </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B51" r:id="rId2"/>
+    <hyperlink ref="B11" r:id="rId3"/>
+    <hyperlink ref="B20" r:id="rId4"/>
+    <hyperlink ref="B71" r:id="rId5"/>
+    <hyperlink ref="B21" r:id="rId6"/>
+    <hyperlink ref="B46" r:id="rId7"/>
+    <hyperlink ref="B47" r:id="rId8"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>